--- a/Proyecto Final/Comparación Modelos.xlsx
+++ b/Proyecto Final/Comparación Modelos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela\Desktop\InteligenciaArtificial\Proyecto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D499314-3E0C-4377-8E05-C1D8DAA44405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D9AF95-D847-46A8-A706-FD50EAE4D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{45B09D39-83DE-4DE5-A9D8-E92A99F7ACB6}"/>
   </bookViews>
@@ -208,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -313,6 +313,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2832,12 +2835,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C9331F-E9DA-456D-8A1F-70D3295EFB7F}">
   <dimension ref="C1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
@@ -2845,6 +2849,7 @@
   <sheetData>
     <row r="1" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="36"/>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
